--- a/Data Files/TestDataECR.xlsx
+++ b/Data Files/TestDataECR.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nipin\Desktop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAUIAutomation\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <t>C:\Users\nipin\Desktop\BSW.xlsm</t>
   </si>
   <si>
-    <t>ECR-14Feb2018-30</t>
+    <t>ECR-10Apr2018-6</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +666,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="7" t="s">
